--- a/src/projet/document/planning et journal.xlsx
+++ b/src/projet/document/planning et journal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\151 - Schneider\projet\module-151-exeossss\src\projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\151 - Schneider\projet\module-151-exeossss\src\projet\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4C3976-34CC-444E-B317-9608BD05410A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56E6E82-CB04-461F-9F03-B4F9C0CB427D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
   <si>
     <t>Tâches</t>
   </si>
@@ -369,6 +369,15 @@
   </si>
   <si>
     <t>Ce matin, j'ai continuer ma documentation en mettant sur pied un protocole de test pour la réservation d'une table</t>
+  </si>
+  <si>
+    <t>En début d'après-midi, j'ai commencé à mettre en place mon espace de travail pour mon projet, c'est-à-dire créer les différents fichiers, etc…</t>
+  </si>
+  <si>
+    <t>Durant l'après-midi, mon professeur est venu voir l'avancée de mon projet en validant les différentes tâches que j'ai pu effectuer</t>
+  </si>
+  <si>
+    <t>Une fois cette rencontre terminée, j'ai mis à jour mon diagramme de séquence système ainsi que mon diagramme de classe</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1257,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1720,7 +1729,9 @@
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
       <c r="H23" s="24"/>
-      <c r="I23" s="41"/>
+      <c r="I23" s="41" t="s">
+        <v>54</v>
+      </c>
       <c r="J23" s="28"/>
       <c r="K23" s="21"/>
       <c r="L23" s="22"/>
@@ -1925,10 +1936,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A12" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView view="pageLayout" topLeftCell="A18" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2129,43 +2140,111 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>45698</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>45698</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>45698</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="13"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="13"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="13">
-        <f>SUM(C8:C21)</f>
-        <v>17.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="13">
+        <f>SUM(C8:C24)</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2183,31 +2262,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <INOU_x00cf_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <NON xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <TaxCatchAll xmlns="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xsi:nil="true"/>
-    <toutvabien xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <a xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <_x002d__x002e__x002d_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">.-.</_x002d__x002e__x002d_>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010041433D532D33284694B8292187168088" ma:contentTypeVersion="20" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a6a15b9106ef78c138a0ab33249408c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xmlns:ns3="fcabc8dd-3274-4261-b688-fb49e1a84a60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f299860b08438f464b66cb389ee0528" ns2:_="" ns3:_="">
     <xsd:import namespace="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
@@ -2476,26 +2530,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92433B2D-0774-4141-A340-826B2CF0D0B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fcabc8dd-3274-4261-b688-fb49e1a84a60"/>
-    <ds:schemaRef ds:uri="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE997C-CC40-4C9E-895E-C18775B049B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <INOU_x00cf_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <NON xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <TaxCatchAll xmlns="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xsi:nil="true"/>
+    <toutvabien xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <a xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <_x002d__x002e__x002d_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">.-.</_x002d__x002e__x002d_>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5622E8-3DF4-4B1B-82B9-E7FCE9ABFC72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2512,4 +2572,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE997C-CC40-4C9E-895E-C18775B049B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92433B2D-0774-4141-A340-826B2CF0D0B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fcabc8dd-3274-4261-b688-fb49e1a84a60"/>
+    <ds:schemaRef ds:uri="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/projet/document/planning et journal.xlsx
+++ b/src/projet/document/planning et journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\151 - Schneider\projet\module-151-exeossss\src\projet\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56E6E82-CB04-461F-9F03-B4F9C0CB427D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265EF8B8-CAC2-4B17-B26A-7D7F6F28106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
   <si>
     <t>Tâches</t>
   </si>
@@ -378,6 +378,12 @@
   </si>
   <si>
     <t>Une fois cette rencontre terminée, j'ai mis à jour mon diagramme de séquence système ainsi que mon diagramme de classe</t>
+  </si>
+  <si>
+    <t>J'ai ensuite fait mon diagramme de séquence intéraction et l'ai documenté</t>
+  </si>
+  <si>
+    <t>J'ai continuer l'après midi en commençant l'implémentation. J'ai commencé par crée la page de login ainsi que la page de contact de mon site</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1263,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1647,7 +1653,9 @@
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="25"/>
+      <c r="I19" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="J19" s="27"/>
       <c r="K19" s="24"/>
       <c r="L19" s="25"/>
@@ -1901,7 +1909,9 @@
       <c r="H31" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="38"/>
+      <c r="I31" s="38" t="s">
+        <v>54</v>
+      </c>
       <c r="J31" s="39"/>
       <c r="K31" s="37"/>
       <c r="L31" s="38"/>
@@ -1938,8 +1948,8 @@
   </sheetPr>
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A18" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView view="pageLayout" topLeftCell="A15" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,7 +2158,7 @@
         <v>79</v>
       </c>
       <c r="C22" s="13">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
@@ -2173,15 +2183,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="13"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="13"/>
+    <row r="25" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>45698</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>45698</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
@@ -2214,8 +2236,8 @@
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="13">
-        <f>SUM(C8:C24)</f>
-        <v>19.5</v>
+        <f>SUM(C8:C26)</f>
+        <v>21.75</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -2262,6 +2284,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <INOU_x00cf_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <NON xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <TaxCatchAll xmlns="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xsi:nil="true"/>
+    <toutvabien xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <a xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <_x002d__x002e__x002d_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">.-.</_x002d__x002e__x002d_>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010041433D532D33284694B8292187168088" ma:contentTypeVersion="20" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a6a15b9106ef78c138a0ab33249408c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xmlns:ns3="fcabc8dd-3274-4261-b688-fb49e1a84a60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f299860b08438f464b66cb389ee0528" ns2:_="" ns3:_="">
     <xsd:import namespace="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
@@ -2530,32 +2577,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92433B2D-0774-4141-A340-826B2CF0D0B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fcabc8dd-3274-4261-b688-fb49e1a84a60"/>
+    <ds:schemaRef ds:uri="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <INOU_x00cf_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <NON xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <TaxCatchAll xmlns="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xsi:nil="true"/>
-    <toutvabien xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <a xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <_x002d__x002e__x002d_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">.-.</_x002d__x002e__x002d_>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE997C-CC40-4C9E-895E-C18775B049B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5622E8-3DF4-4B1B-82B9-E7FCE9ABFC72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2572,23 +2613,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE997C-CC40-4C9E-895E-C18775B049B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92433B2D-0774-4141-A340-826B2CF0D0B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fcabc8dd-3274-4261-b688-fb49e1a84a60"/>
-    <ds:schemaRef ds:uri="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/projet/document/planning et journal.xlsx
+++ b/src/projet/document/planning et journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\151 - Schneider\projet\module-151-exeossss\src\projet\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265EF8B8-CAC2-4B17-B26A-7D7F6F28106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7274B3BD-1AE9-4BBB-8AD5-AAA7A8098849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
   <si>
     <t>Tâches</t>
   </si>
@@ -815,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -886,9 +886,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -916,9 +913,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1263,7 +1257,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1273,68 +1267,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="47"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="45"/>
       <c r="N3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="45">
+      <c r="O3" s="43">
         <v>300231</v>
       </c>
-      <c r="P3" s="47"/>
+      <c r="P3" s="45"/>
     </row>
     <row r="4" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="47"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="45"/>
       <c r="N4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1344,31 +1338,31 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="48" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="48" t="s">
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="48" t="s">
+      <c r="I7" s="47"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="49"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="48" t="s">
+      <c r="L7" s="47"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="49"/>
-      <c r="P7" s="50"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="48"/>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
@@ -1652,7 +1646,9 @@
       <c r="E19" s="24"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="21"/>
+      <c r="H19" s="21" t="s">
+        <v>54</v>
+      </c>
       <c r="I19" s="25" t="s">
         <v>54</v>
       </c>
@@ -1717,9 +1713,13 @@
       <c r="F22" s="25"/>
       <c r="G22" s="26"/>
       <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="40"/>
+      <c r="I22" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" s="38"/>
       <c r="L22" s="25"/>
       <c r="M22" s="26"/>
       <c r="N22" s="24"/>
@@ -1737,10 +1737,12 @@
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
       <c r="H23" s="24"/>
-      <c r="I23" s="41" t="s">
+      <c r="I23" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="28"/>
+      <c r="J23" s="23" t="s">
+        <v>54</v>
+      </c>
       <c r="K23" s="21"/>
       <c r="L23" s="22"/>
       <c r="M23" s="23"/>
@@ -1760,8 +1762,8 @@
       <c r="G24" s="26"/>
       <c r="H24" s="24"/>
       <c r="I24" s="25"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="38"/>
       <c r="L24" s="22"/>
       <c r="M24" s="23"/>
       <c r="N24" s="21"/>
@@ -1781,9 +1783,9 @@
       <c r="H25" s="24"/>
       <c r="I25" s="25"/>
       <c r="J25" s="27"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="43"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="41"/>
       <c r="N25" s="24"/>
       <c r="O25" s="22"/>
       <c r="P25" s="26"/>
@@ -1824,8 +1826,8 @@
       <c r="K27" s="24"/>
       <c r="L27" s="25"/>
       <c r="M27" s="26"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="41"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="39"/>
       <c r="P27" s="23"/>
     </row>
     <row r="28" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1844,12 +1846,12 @@
       <c r="K28" s="24"/>
       <c r="L28" s="25"/>
       <c r="M28" s="26"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="41"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="39"/>
       <c r="P28" s="23"/>
     </row>
     <row r="29" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="31" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="24"/>
@@ -1872,53 +1874,55 @@
       <c r="A30" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="35"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="34"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31" t="s">
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F31" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="31" t="s">
+      <c r="G31" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="H31" s="37" t="s">
+      <c r="H31" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="38" t="s">
+      <c r="I31" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="J31" s="39"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="31"/>
+      <c r="J31" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" s="36"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1960,11 +1964,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2284,31 +2288,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <INOU_x00cf_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <NON xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <TaxCatchAll xmlns="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xsi:nil="true"/>
-    <toutvabien xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <a xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <_x002d__x002e__x002d_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">.-.</_x002d__x002e__x002d_>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010041433D532D33284694B8292187168088" ma:contentTypeVersion="20" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a6a15b9106ef78c138a0ab33249408c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xmlns:ns3="fcabc8dd-3274-4261-b688-fb49e1a84a60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f299860b08438f464b66cb389ee0528" ns2:_="" ns3:_="">
     <xsd:import namespace="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
@@ -2577,26 +2556,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92433B2D-0774-4141-A340-826B2CF0D0B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fcabc8dd-3274-4261-b688-fb49e1a84a60"/>
-    <ds:schemaRef ds:uri="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE997C-CC40-4C9E-895E-C18775B049B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <INOU_x00cf_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <NON xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <TaxCatchAll xmlns="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xsi:nil="true"/>
+    <toutvabien xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <a xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <_x002d__x002e__x002d_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">.-.</_x002d__x002e__x002d_>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5622E8-3DF4-4B1B-82B9-E7FCE9ABFC72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2613,4 +2598,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE997C-CC40-4C9E-895E-C18775B049B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92433B2D-0774-4141-A340-826B2CF0D0B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fcabc8dd-3274-4261-b688-fb49e1a84a60"/>
+    <ds:schemaRef ds:uri="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/projet/document/planning et journal.xlsx
+++ b/src/projet/document/planning et journal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\151 - Schneider\projet\module-151-exeossss\src\projet\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7274B3BD-1AE9-4BBB-8AD5-AAA7A8098849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116476CF-D717-4750-B348-6463B54554E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
   <si>
     <t>Tâches</t>
   </si>
@@ -384,6 +384,15 @@
   </si>
   <si>
     <t>J'ai continuer l'après midi en commençant l'implémentation. J'ai commencé par crée la page de login ainsi que la page de contact de mon site</t>
+  </si>
+  <si>
+    <t>Ce matin j'ai commencé par faire la page de reservation de table</t>
+  </si>
+  <si>
+    <t>J'ai continuer la matinée en continuant le login et ai régler quelque problème avec le CSS en autre</t>
+  </si>
+  <si>
+    <t>Ce matin j'ai commencé par crée la base de donnée que mon application web utilisera pour les utilisateurs</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1266,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1743,8 +1752,12 @@
       <c r="J23" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="21"/>
-      <c r="L23" s="22"/>
+      <c r="K23" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="M23" s="23"/>
       <c r="N23" s="24"/>
       <c r="O23" s="25"/>
@@ -1950,10 +1963,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A15" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView view="pageLayout" topLeftCell="A20" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2210,19 +2223,37 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="13"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="13"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="13"/>
+      <c r="A27" s="12">
+        <v>45699</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>45699</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>45705</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
@@ -2234,43 +2265,68 @@
       <c r="B31" s="9"/>
       <c r="C31" s="13"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="13"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="13"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="13">
-        <f>SUM(C8:C26)</f>
-        <v>21.75</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="14" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="13">
+        <f>SUM(C8:C29)</f>
+        <v>24.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="16" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="15" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="16" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="16" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="16" t="s">
         <v>27</v>
       </c>
     </row>

--- a/src/projet/document/planning et journal.xlsx
+++ b/src/projet/document/planning et journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\151 - Schneider\projet\module-151-exeossss\src\projet\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116476CF-D717-4750-B348-6463B54554E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BD2C3C-DEF9-4D59-A6DF-E4860FF74198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="91">
   <si>
     <t>Tâches</t>
   </si>
@@ -393,6 +393,18 @@
   </si>
   <si>
     <t>Ce matin j'ai commencé par crée la base de donnée que mon application web utilisera pour les utilisateurs</t>
+  </si>
+  <si>
+    <t>Ce matin j'ai passé un bon moment à faire mon login, j'ai eu quelque problèmes qui m'ont pris du temps à cause du cache de mon navigateur qui n'était pas vide</t>
+  </si>
+  <si>
+    <t>Ce matin j'ai eu une discussion avec mon professeur sur ma documentation de projet</t>
+  </si>
+  <si>
+    <t>J'ai terminé la matiné en corrigeant quelques points dans mon rapport</t>
+  </si>
+  <si>
+    <t>Durant l'après-midi, j'ai continuer à faire le login en résoluant les différents problèmes que j'ai recontrer</t>
   </si>
 </sst>
 </file>
@@ -1265,8 +1277,8 @@
   </sheetPr>
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView view="pageLayout" topLeftCell="A8" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1931,7 +1943,9 @@
         <v>54</v>
       </c>
       <c r="K31" s="36"/>
-      <c r="L31" s="37"/>
+      <c r="L31" s="37" t="s">
+        <v>54</v>
+      </c>
       <c r="M31" s="30"/>
       <c r="N31" s="36"/>
       <c r="O31" s="37"/>
@@ -1965,8 +1979,8 @@
   </sheetPr>
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A20" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,25 +2269,49 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="13"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="13"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="13"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="13"/>
+    <row r="30" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>45705</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>45705</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>45705</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>45705</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="13">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
@@ -2296,8 +2334,8 @@
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="13">
-        <f>SUM(C8:C29)</f>
-        <v>24.75</v>
+        <f>SUM(C8:C33)</f>
+        <v>30.75</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2344,6 +2382,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <INOU_x00cf_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <NON xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <TaxCatchAll xmlns="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xsi:nil="true"/>
+    <toutvabien xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <a xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <_x002d__x002e__x002d_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">.-.</_x002d__x002e__x002d_>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010041433D532D33284694B8292187168088" ma:contentTypeVersion="20" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a6a15b9106ef78c138a0ab33249408c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xmlns:ns3="fcabc8dd-3274-4261-b688-fb49e1a84a60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f299860b08438f464b66cb389ee0528" ns2:_="" ns3:_="">
     <xsd:import namespace="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
@@ -2612,32 +2675,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92433B2D-0774-4141-A340-826B2CF0D0B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fcabc8dd-3274-4261-b688-fb49e1a84a60"/>
+    <ds:schemaRef ds:uri="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <INOU_x00cf_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <NON xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <TaxCatchAll xmlns="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xsi:nil="true"/>
-    <toutvabien xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <a xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <_x002d__x002e__x002d_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">.-.</_x002d__x002e__x002d_>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE997C-CC40-4C9E-895E-C18775B049B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5622E8-3DF4-4B1B-82B9-E7FCE9ABFC72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2654,23 +2711,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE997C-CC40-4C9E-895E-C18775B049B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92433B2D-0774-4141-A340-826B2CF0D0B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fcabc8dd-3274-4261-b688-fb49e1a84a60"/>
-    <ds:schemaRef ds:uri="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/projet/document/planning et journal.xlsx
+++ b/src/projet/document/planning et journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\151 - Schneider\projet\module-151-exeossss\src\projet\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BD2C3C-DEF9-4D59-A6DF-E4860FF74198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C87E61-6AB2-4C27-9D6F-93861D740CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>Tâches</t>
   </si>
@@ -404,7 +404,10 @@
     <t>J'ai terminé la matiné en corrigeant quelques points dans mon rapport</t>
   </si>
   <si>
-    <t>Durant l'après-midi, j'ai continuer à faire le login en résoluant les différents problèmes que j'ai recontrer</t>
+    <t>Durant l'après-midi, j'ai terminer le login en résoluant les différents problèmes que j'ai recontrer</t>
+  </si>
+  <si>
+    <t>Ce matin j'ai commencé par finalisé mon login en le couplant avec la base de donnée</t>
   </si>
 </sst>
 </file>
@@ -1277,8 +1280,8 @@
   </sheetPr>
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A8" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView view="pageLayout" topLeftCell="A11" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1770,7 +1773,9 @@
       <c r="L23" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="M23" s="23"/>
+      <c r="M23" s="23" t="s">
+        <v>54</v>
+      </c>
       <c r="N23" s="24"/>
       <c r="O23" s="25"/>
       <c r="P23" s="26"/>
@@ -1790,7 +1795,9 @@
       <c r="J24" s="40"/>
       <c r="K24" s="38"/>
       <c r="L24" s="22"/>
-      <c r="M24" s="23"/>
+      <c r="M24" s="23" t="s">
+        <v>54</v>
+      </c>
       <c r="N24" s="21"/>
       <c r="O24" s="25"/>
       <c r="P24" s="26"/>
@@ -1977,10 +1984,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2313,10 +2320,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="13"/>
+    <row r="34" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>45706</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="13">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
@@ -2328,43 +2341,153 @@
       <c r="B36" s="9"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="13"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="13"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="13"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="13"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="13"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="13"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="13"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="13"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="13"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="13"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="13"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="13"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="13"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="13"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="13"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="13"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="13"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="13"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="13"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="13"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="13">
-        <f>SUM(C8:C33)</f>
-        <v>30.75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="14" t="s">
+      <c r="B59" s="9"/>
+      <c r="C59" s="13">
+        <f>SUM(C8:C34)</f>
+        <v>32.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="16" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="15" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="16" t="s">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="16" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="16" t="s">
         <v>27</v>
       </c>
     </row>

--- a/src/projet/document/planning et journal.xlsx
+++ b/src/projet/document/planning et journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\151 - Schneider\projet\module-151-exeossss\src\projet\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C87E61-6AB2-4C27-9D6F-93861D740CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A76FAC-B153-42A9-9C80-8498116425A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
   <si>
     <t>Tâches</t>
   </si>
@@ -338,9 +338,6 @@
     <t>Ce matin, j'ai commencé par faire et documenter mon diagramme ER</t>
   </si>
   <si>
-    <t>J'ai eu un problème avec word, je ne pouvais plus l'éditer. J'ai donc du redocumenter les maquettes, le diagramme d'activité, le diagramme de séquence système et le schéma ER</t>
-  </si>
-  <si>
     <t>Schneider Baptiste 300233</t>
   </si>
   <si>
@@ -356,9 +353,6 @@
     <t>J'ai pu, par la suite, créer mon schéma relationnel et le documenter</t>
   </si>
   <si>
-    <t>J'ai vérifié l'orthographe des différents documents que j'ai pu produire jusque là afin de ne pas perdre de temps à la fin pour cela</t>
-  </si>
-  <si>
     <t>J'ai eu une discussion avec mon professeur afin de vérifier ce qui avait déjà été fait. L'introduction, la planification et les maquettes ont été validées, le diagramme d'activité et le use case ont eux dû être revus pour des corrections</t>
   </si>
   <si>
@@ -368,9 +362,6 @@
     <t xml:space="preserve">Ce matin, j'ai commencé par faire mes diagrammes de classes et les ai documentés </t>
   </si>
   <si>
-    <t>Ce matin, j'ai continuer ma documentation en mettant sur pied un protocole de test pour la réservation d'une table</t>
-  </si>
-  <si>
     <t>En début d'après-midi, j'ai commencé à mettre en place mon espace de travail pour mon projet, c'est-à-dire créer les différents fichiers, etc…</t>
   </si>
   <si>
@@ -380,34 +371,61 @@
     <t>Une fois cette rencontre terminée, j'ai mis à jour mon diagramme de séquence système ainsi que mon diagramme de classe</t>
   </si>
   <si>
-    <t>J'ai ensuite fait mon diagramme de séquence intéraction et l'ai documenté</t>
-  </si>
-  <si>
-    <t>J'ai continuer l'après midi en commençant l'implémentation. J'ai commencé par crée la page de login ainsi que la page de contact de mon site</t>
-  </si>
-  <si>
-    <t>Ce matin j'ai commencé par faire la page de reservation de table</t>
-  </si>
-  <si>
-    <t>J'ai continuer la matinée en continuant le login et ai régler quelque problème avec le CSS en autre</t>
-  </si>
-  <si>
-    <t>Ce matin j'ai commencé par crée la base de donnée que mon application web utilisera pour les utilisateurs</t>
-  </si>
-  <si>
-    <t>Ce matin j'ai passé un bon moment à faire mon login, j'ai eu quelque problèmes qui m'ont pris du temps à cause du cache de mon navigateur qui n'était pas vide</t>
-  </si>
-  <si>
     <t>Ce matin j'ai eu une discussion avec mon professeur sur ma documentation de projet</t>
   </si>
   <si>
-    <t>J'ai terminé la matiné en corrigeant quelques points dans mon rapport</t>
-  </si>
-  <si>
-    <t>Durant l'après-midi, j'ai terminer le login en résoluant les différents problèmes que j'ai recontrer</t>
-  </si>
-  <si>
-    <t>Ce matin j'ai commencé par finalisé mon login en le couplant avec la base de donnée</t>
+    <t>J'ai eu un problème avec Word, je ne pouvais plus l'éditer. J'ai donc dû redocumenter les maquettes, le diagramme d'activité, le diagramme de séquence système et le schéma ER</t>
+  </si>
+  <si>
+    <t>J'ai vérifié l'orthographe des différents documents que j'ai pu produire jusque-là afin de ne pas perdre de temps à la fin pour cela</t>
+  </si>
+  <si>
+    <t>Ce matin, j'ai continué ma documentation en mettant sur pied un protocole de test pour la réservation d'une table</t>
+  </si>
+  <si>
+    <t>J'ai ensuite fait mon diagramme de séquence interaction et l'ai documenté</t>
+  </si>
+  <si>
+    <t>J'ai continué l'après-midi en commençant l'implémentation. J'ai commencé par créer la page de login ainsi que la page de contact de mon site</t>
+  </si>
+  <si>
+    <t>Ce matin j'ai commencé par faire la page de réservation de table</t>
+  </si>
+  <si>
+    <t>J'ai continué la matinée en continuant le login et ai réglé quelques problèmes avec le CSS, entre autres</t>
+  </si>
+  <si>
+    <t>Ce matin j'ai commencé par créer la base de données que mon application web utilisera pour les utilisateurs</t>
+  </si>
+  <si>
+    <t>Ce matin j'ai passé un bon moment à faire mon login, j'ai eu quelques problèmes qui m'ont pris du temps à cause du cache de mon navigateur qui n'était pas vide</t>
+  </si>
+  <si>
+    <t>J'ai terminé la matinée en corrigeant quelques points dans mon rapport</t>
+  </si>
+  <si>
+    <t>Durant l'après-midi, j'ai terminé le login en résolvant les différents problèmes que j'ai rencontrés</t>
+  </si>
+  <si>
+    <t>Ce matin j'ai commencé par finaliser mon login en le couplant avec la base de données</t>
+  </si>
+  <si>
+    <t>Ce matin j'ai continué la documentation de mon projet en modifiant les points vus avec mon professeur</t>
+  </si>
+  <si>
+    <t>J'ai fini la matinée en commençant les réservations d'une table</t>
+  </si>
+  <si>
+    <t>En début de matinée, j'ai continuer la réservation, mais mon professeur ayant remarqué que je partais dans la mauvaise direction m'a remis sur le bon chemin</t>
+  </si>
+  <si>
+    <t>Durant le reste de la matiné, j'ai fais de la documentation afin de ne pas prendre trop de retard</t>
+  </si>
+  <si>
+    <t>Durant l'après-midi, j'ai essayé de résoudre mes problèmes avec la reservation de table</t>
+  </si>
+  <si>
+    <t>J'ai continué l'après-midi en continuant la documentation</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1299,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A11" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1798,8 +1816,12 @@
       <c r="M24" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="N24" s="21"/>
-      <c r="O24" s="25"/>
+      <c r="N24" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="O24" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="P24" s="26"/>
     </row>
     <row r="25" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1819,7 +1841,9 @@
       <c r="L25" s="39"/>
       <c r="M25" s="41"/>
       <c r="N25" s="24"/>
-      <c r="O25" s="22"/>
+      <c r="O25" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="P25" s="26"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -1954,8 +1978,12 @@
         <v>54</v>
       </c>
       <c r="M31" s="30"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="37"/>
+      <c r="N31" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="O31" s="37" t="s">
+        <v>54</v>
+      </c>
       <c r="P31" s="30"/>
     </row>
   </sheetData>
@@ -1986,8 +2014,8 @@
   </sheetPr>
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A33" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2010,7 +2038,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -2050,7 +2078,7 @@
         <v>45685</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="13">
         <v>1.5</v>
@@ -2072,7 +2100,7 @@
         <v>45691</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="13">
         <v>1</v>
@@ -2094,7 +2122,7 @@
         <v>45691</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="13">
         <v>3</v>
@@ -2105,7 +2133,7 @@
         <v>45691</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C14" s="13">
         <v>0.75</v>
@@ -2116,7 +2144,7 @@
         <v>45691</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15" s="13">
         <v>1</v>
@@ -2138,7 +2166,7 @@
         <v>45692</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C17" s="13">
         <v>1.5</v>
@@ -2149,7 +2177,7 @@
         <v>45692</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="13">
         <v>1</v>
@@ -2160,7 +2188,7 @@
         <v>45692</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C19" s="13">
         <v>0.5</v>
@@ -2171,7 +2199,7 @@
         <v>45698</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" s="13">
         <v>2.5</v>
@@ -2182,7 +2210,7 @@
         <v>45698</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C21" s="13">
         <v>1</v>
@@ -2193,7 +2221,7 @@
         <v>45698</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C22" s="13">
         <v>0.25</v>
@@ -2204,7 +2232,7 @@
         <v>45698</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C23" s="13">
         <v>0.25</v>
@@ -2215,7 +2243,7 @@
         <v>45698</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C24" s="13">
         <v>1</v>
@@ -2226,7 +2254,7 @@
         <v>45698</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" s="13">
         <v>1.5</v>
@@ -2237,7 +2265,7 @@
         <v>45698</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" s="13">
         <v>1</v>
@@ -2248,7 +2276,7 @@
         <v>45699</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" s="13">
         <v>1.5</v>
@@ -2259,7 +2287,7 @@
         <v>45699</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C28" s="13">
         <v>1</v>
@@ -2270,7 +2298,7 @@
         <v>45705</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" s="13">
         <v>0.5</v>
@@ -2281,7 +2309,7 @@
         <v>45705</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C30" s="13">
         <v>2</v>
@@ -2292,7 +2320,7 @@
         <v>45705</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C31" s="13">
         <v>0.5</v>
@@ -2328,38 +2356,74 @@
         <v>91</v>
       </c>
       <c r="C34" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>45706</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>45706</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>45712</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>45712</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>45712</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>45712</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="13">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="13"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="13"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="13"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="13"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="13"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="13"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
@@ -2458,7 +2522,7 @@
       <c r="B59" s="9"/>
       <c r="C59" s="13">
         <f>SUM(C8:C34)</f>
-        <v>32.25</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/projet/document/planning et journal.xlsx
+++ b/src/projet/document/planning et journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\151 - Schneider\projet\module-151-exeossss\src\projet\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A76FAC-B153-42A9-9C80-8498116425A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D755AA0-2F47-4218-8B4C-CFA2D2EBEE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="99">
   <si>
     <t>Tâches</t>
   </si>
@@ -426,6 +426,9 @@
   </si>
   <si>
     <t>J'ai continué l'après-midi en continuant la documentation</t>
+  </si>
+  <si>
+    <t>Ce matin, j'ai commencé par faire l'hébergement de mon site web</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1302,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A11" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1844,7 +1847,9 @@
       <c r="O25" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="P25" s="26"/>
+      <c r="P25" s="26" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
@@ -1884,7 +1889,9 @@
       <c r="M27" s="26"/>
       <c r="N27" s="38"/>
       <c r="O27" s="39"/>
-      <c r="P27" s="23"/>
+      <c r="P27" s="23" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
@@ -1904,7 +1911,9 @@
       <c r="M28" s="26"/>
       <c r="N28" s="38"/>
       <c r="O28" s="39"/>
-      <c r="P28" s="23"/>
+      <c r="P28" s="23" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
@@ -1924,7 +1933,9 @@
       <c r="M29" s="26"/>
       <c r="N29" s="24"/>
       <c r="O29" s="25"/>
-      <c r="P29" s="23"/>
+      <c r="P29" s="23" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
@@ -1984,7 +1995,9 @@
       <c r="O31" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="P31" s="30"/>
+      <c r="P31" s="30" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2015,7 +2028,7 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A33" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2426,9 +2439,15 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="13"/>
+      <c r="A41" s="12">
+        <v>45713</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
@@ -2569,31 +2588,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <INOU_x00cf_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <NON xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <TaxCatchAll xmlns="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xsi:nil="true"/>
-    <toutvabien xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <a xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <_x002d__x002e__x002d_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">.-.</_x002d__x002e__x002d_>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010041433D532D33284694B8292187168088" ma:contentTypeVersion="20" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a6a15b9106ef78c138a0ab33249408c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xmlns:ns3="fcabc8dd-3274-4261-b688-fb49e1a84a60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f299860b08438f464b66cb389ee0528" ns2:_="" ns3:_="">
     <xsd:import namespace="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
@@ -2862,26 +2856,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92433B2D-0774-4141-A340-826B2CF0D0B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fcabc8dd-3274-4261-b688-fb49e1a84a60"/>
-    <ds:schemaRef ds:uri="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE997C-CC40-4C9E-895E-C18775B049B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <INOU_x00cf_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <NON xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <TaxCatchAll xmlns="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xsi:nil="true"/>
+    <toutvabien xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <a xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <_x002d__x002e__x002d_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">.-.</_x002d__x002e__x002d_>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5622E8-3DF4-4B1B-82B9-E7FCE9ABFC72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2898,4 +2898,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE997C-CC40-4C9E-895E-C18775B049B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92433B2D-0774-4141-A340-826B2CF0D0B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fcabc8dd-3274-4261-b688-fb49e1a84a60"/>
+    <ds:schemaRef ds:uri="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/projet/document/planning et journal.xlsx
+++ b/src/projet/document/planning et journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\151 - Schneider\projet\module-151-exeossss\src\projet\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D755AA0-2F47-4218-8B4C-CFA2D2EBEE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4751E530-8D7E-4273-A688-CFD313A09253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="101">
   <si>
     <t>Tâches</t>
   </si>
@@ -429,6 +429,12 @@
   </si>
   <si>
     <t>Ce matin, j'ai commencé par faire l'hébergement de mon site web</t>
+  </si>
+  <si>
+    <t>J'ai continué la matinée en essayant de finaliser mon projet au mieux</t>
+  </si>
+  <si>
+    <t>Mon professeur est passé au cours de la matinée afin de vérifier mon code et voir si j'avais bien tout compris</t>
   </si>
 </sst>
 </file>
@@ -1301,8 +1307,8 @@
   </sheetPr>
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A11" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2027,8 +2033,8 @@
   </sheetPr>
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A33" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView view="pageLayout" topLeftCell="A33" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2449,15 +2455,27 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="13"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="13"/>
+    <row r="42" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <v>45713</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <v>45713</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
@@ -2588,6 +2606,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <INOU_x00cf_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <NON xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <TaxCatchAll xmlns="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xsi:nil="true"/>
+    <toutvabien xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <a xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <_x002d__x002e__x002d_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">.-.</_x002d__x002e__x002d_>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010041433D532D33284694B8292187168088" ma:contentTypeVersion="20" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a6a15b9106ef78c138a0ab33249408c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xmlns:ns3="fcabc8dd-3274-4261-b688-fb49e1a84a60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f299860b08438f464b66cb389ee0528" ns2:_="" ns3:_="">
     <xsd:import namespace="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
@@ -2856,32 +2899,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92433B2D-0774-4141-A340-826B2CF0D0B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fcabc8dd-3274-4261-b688-fb49e1a84a60"/>
+    <ds:schemaRef ds:uri="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <INOU_x00cf_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <NON xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <TaxCatchAll xmlns="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xsi:nil="true"/>
-    <toutvabien xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <a xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <_x002d__x002e__x002d_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">.-.</_x002d__x002e__x002d_>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE997C-CC40-4C9E-895E-C18775B049B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5622E8-3DF4-4B1B-82B9-E7FCE9ABFC72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2898,23 +2935,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE997C-CC40-4C9E-895E-C18775B049B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92433B2D-0774-4141-A340-826B2CF0D0B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fcabc8dd-3274-4261-b688-fb49e1a84a60"/>
-    <ds:schemaRef ds:uri="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/projet/document/planning et journal.xlsx
+++ b/src/projet/document/planning et journal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\151 - Schneider\projet\module-151-exeossss\src\projet\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\module_151_SCHNEIDER-main\module_151_SCHNEIDER\src\projet\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4751E530-8D7E-4273-A688-CFD313A09253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3D3B6A-C59C-4088-B9D2-E01C47389632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="95">
   <si>
     <t>Tâches</t>
   </si>
@@ -98,124 +98,6 @@
   </si>
   <si>
     <t>Journal de travail - 151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A mettre : </t>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Toutes les tâches effectuées sur le projet</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Les problèmes rencontrés</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Toutes les rencontres avec le professeur</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ce qui a été contrôlé</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ce qui a été décidé</t>
-    </r>
   </si>
   <si>
     <t>28.01.2025 - MAT</t>
@@ -441,7 +323,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,12 +396,6 @@
       <charset val="2"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Courier New"/>
@@ -909,7 +785,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1307,7 +1183,7 @@
   </sheetPr>
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
@@ -1343,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -1368,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
@@ -1420,49 +1296,49 @@
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1470,13 +1346,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="25"/>
@@ -1513,12 +1389,12 @@
     </row>
     <row r="11" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="25"/>
       <c r="D11" s="23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="25"/>
@@ -1535,12 +1411,12 @@
     </row>
     <row r="12" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="25"/>
       <c r="D12" s="23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="25"/>
@@ -1557,13 +1433,13 @@
     </row>
     <row r="13" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
       <c r="E13" s="21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="26"/>
@@ -1579,13 +1455,13 @@
     </row>
     <row r="14" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
       <c r="E14" s="21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="26"/>
@@ -1601,16 +1477,16 @@
     </row>
     <row r="15" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="25"/>
       <c r="D15" s="26"/>
       <c r="E15" s="21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="24"/>
@@ -1625,7 +1501,7 @@
     </row>
     <row r="16" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
@@ -1633,7 +1509,7 @@
       <c r="E16" s="24"/>
       <c r="F16" s="22"/>
       <c r="G16" s="26" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="25"/>
@@ -1667,7 +1543,7 @@
     </row>
     <row r="18" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
@@ -1676,7 +1552,7 @@
       <c r="F18" s="25"/>
       <c r="G18" s="23"/>
       <c r="H18" s="24" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="27"/>
@@ -1689,7 +1565,7 @@
     </row>
     <row r="19" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
@@ -1698,10 +1574,10 @@
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
       <c r="H19" s="21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="24"/>
@@ -1713,7 +1589,7 @@
     </row>
     <row r="20" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
@@ -1721,7 +1597,7 @@
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="25"/>
@@ -1755,7 +1631,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="25"/>
@@ -1765,10 +1641,10 @@
       <c r="G22" s="26"/>
       <c r="H22" s="21"/>
       <c r="I22" s="22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K22" s="38"/>
       <c r="L22" s="25"/>
@@ -1779,7 +1655,7 @@
     </row>
     <row r="23" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
@@ -1789,19 +1665,19 @@
       <c r="G23" s="26"/>
       <c r="H23" s="24"/>
       <c r="I23" s="39" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N23" s="24"/>
       <c r="O23" s="25"/>
@@ -1809,7 +1685,7 @@
     </row>
     <row r="24" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
@@ -1823,19 +1699,19 @@
       <c r="K24" s="38"/>
       <c r="L24" s="22"/>
       <c r="M24" s="23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O24" s="25" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="P24" s="26"/>
     </row>
     <row r="25" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
@@ -1851,10 +1727,10 @@
       <c r="M25" s="41"/>
       <c r="N25" s="24"/>
       <c r="O25" s="22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="P25" s="26" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -1879,7 +1755,7 @@
     </row>
     <row r="27" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="25"/>
@@ -1896,12 +1772,12 @@
       <c r="N27" s="38"/>
       <c r="O27" s="39"/>
       <c r="P27" s="23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
@@ -1918,12 +1794,12 @@
       <c r="N28" s="38"/>
       <c r="O28" s="39"/>
       <c r="P28" s="23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="25"/>
@@ -1940,12 +1816,12 @@
       <c r="N29" s="24"/>
       <c r="O29" s="25"/>
       <c r="P29" s="23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B30" s="32"/>
       <c r="C30" s="33"/>
@@ -1965,44 +1841,44 @@
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B31" s="28"/>
       <c r="C31" s="29"/>
       <c r="D31" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J31" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K31" s="36"/>
       <c r="L31" s="37" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="M31" s="30"/>
       <c r="N31" s="36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O31" s="37" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="P31" s="30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2033,8 +1909,8 @@
   </sheetPr>
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A33" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A37" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2057,7 +1933,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -2066,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -2086,7 +1962,7 @@
         <v>45684</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C8" s="13">
         <v>1</v>
@@ -2097,7 +1973,7 @@
         <v>45685</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C9" s="13">
         <v>1.5</v>
@@ -2108,7 +1984,7 @@
         <v>45685</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C10" s="13">
         <v>1.5</v>
@@ -2119,7 +1995,7 @@
         <v>45691</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C11" s="13">
         <v>1</v>
@@ -2130,7 +2006,7 @@
         <v>45691</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C12" s="13">
         <v>1</v>
@@ -2141,7 +2017,7 @@
         <v>45691</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C13" s="13">
         <v>3</v>
@@ -2152,7 +2028,7 @@
         <v>45691</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C14" s="13">
         <v>0.75</v>
@@ -2163,7 +2039,7 @@
         <v>45691</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C15" s="13">
         <v>1</v>
@@ -2174,7 +2050,7 @@
         <v>45692</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C16" s="13">
         <v>0.5</v>
@@ -2185,7 +2061,7 @@
         <v>45692</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C17" s="13">
         <v>1.5</v>
@@ -2196,7 +2072,7 @@
         <v>45692</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C18" s="13">
         <v>1</v>
@@ -2207,7 +2083,7 @@
         <v>45692</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C19" s="13">
         <v>0.5</v>
@@ -2218,7 +2094,7 @@
         <v>45698</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C20" s="13">
         <v>2.5</v>
@@ -2229,7 +2105,7 @@
         <v>45698</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C21" s="13">
         <v>1</v>
@@ -2240,7 +2116,7 @@
         <v>45698</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C22" s="13">
         <v>0.25</v>
@@ -2251,7 +2127,7 @@
         <v>45698</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C23" s="13">
         <v>0.25</v>
@@ -2262,7 +2138,7 @@
         <v>45698</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C24" s="13">
         <v>1</v>
@@ -2273,7 +2149,7 @@
         <v>45698</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C25" s="13">
         <v>1.5</v>
@@ -2284,7 +2160,7 @@
         <v>45698</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C26" s="13">
         <v>1</v>
@@ -2295,7 +2171,7 @@
         <v>45699</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C27" s="13">
         <v>1.5</v>
@@ -2306,7 +2182,7 @@
         <v>45699</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C28" s="13">
         <v>1</v>
@@ -2317,7 +2193,7 @@
         <v>45705</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C29" s="13">
         <v>0.5</v>
@@ -2328,7 +2204,7 @@
         <v>45705</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C30" s="13">
         <v>2</v>
@@ -2339,7 +2215,7 @@
         <v>45705</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C31" s="13">
         <v>0.5</v>
@@ -2350,7 +2226,7 @@
         <v>45705</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C32" s="13">
         <v>0.5</v>
@@ -2361,7 +2237,7 @@
         <v>45705</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C33" s="13">
         <v>3</v>
@@ -2372,7 +2248,7 @@
         <v>45706</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C34" s="13">
         <v>2</v>
@@ -2383,7 +2259,7 @@
         <v>45706</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C35" s="13">
         <v>1</v>
@@ -2394,7 +2270,7 @@
         <v>45706</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C36" s="13">
         <v>1</v>
@@ -2405,7 +2281,7 @@
         <v>45712</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C37" s="13">
         <v>3</v>
@@ -2416,7 +2292,7 @@
         <v>45712</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C38" s="13">
         <v>1</v>
@@ -2427,7 +2303,7 @@
         <v>45712</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C39" s="13">
         <v>2.5</v>
@@ -2438,7 +2314,7 @@
         <v>45712</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C40" s="13">
         <v>1.5</v>
@@ -2449,7 +2325,7 @@
         <v>45713</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C41" s="13">
         <v>0.5</v>
@@ -2460,7 +2336,7 @@
         <v>45713</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C42" s="13">
         <v>1</v>
@@ -2471,7 +2347,7 @@
         <v>45713</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C43" s="13">
         <v>0.5</v>
@@ -2558,39 +2434,27 @@
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="13">
-        <f>SUM(C8:C34)</f>
-        <v>32.75</v>
+        <f>SUM(C8:C43)</f>
+        <v>44.75</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="14" t="s">
-        <v>22</v>
-      </c>
+      <c r="B61" s="14"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="B62" s="15"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="B63" s="16"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="B64" s="15"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="16" t="s">
-        <v>26</v>
-      </c>
+      <c r="B65" s="16"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="16" t="s">
-        <v>27</v>
-      </c>
+      <c r="B66" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2606,31 +2470,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <INOU_x00cf_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <NON xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <TaxCatchAll xmlns="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xsi:nil="true"/>
-    <toutvabien xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <a xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <_x002d__x002e__x002d_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">.-.</_x002d__x002e__x002d_>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010041433D532D33284694B8292187168088" ma:contentTypeVersion="20" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a6a15b9106ef78c138a0ab33249408c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xmlns:ns3="fcabc8dd-3274-4261-b688-fb49e1a84a60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f299860b08438f464b66cb389ee0528" ns2:_="" ns3:_="">
     <xsd:import namespace="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
@@ -2899,26 +2738,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92433B2D-0774-4141-A340-826B2CF0D0B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fcabc8dd-3274-4261-b688-fb49e1a84a60"/>
-    <ds:schemaRef ds:uri="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE997C-CC40-4C9E-895E-C18775B049B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <INOU_x00cf_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <NON xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <TaxCatchAll xmlns="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xsi:nil="true"/>
+    <toutvabien xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <a xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <_x002d__x002e__x002d_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">.-.</_x002d__x002e__x002d_>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5622E8-3DF4-4B1B-82B9-E7FCE9ABFC72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2935,4 +2780,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE997C-CC40-4C9E-895E-C18775B049B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92433B2D-0774-4141-A340-826B2CF0D0B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fcabc8dd-3274-4261-b688-fb49e1a84a60"/>
+    <ds:schemaRef ds:uri="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/projet/document/planning et journal.xlsx
+++ b/src/projet/document/planning et journal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\module_151_SCHNEIDER-main\module_151_SCHNEIDER\src\projet\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\151 - Schneider\projet\module-151-exeossss\src\projet\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3D3B6A-C59C-4088-B9D2-E01C47389632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E98CCD9-7D9B-4C54-A755-DBFE7656A651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="107">
   <si>
     <t>Tâches</t>
   </si>
@@ -317,6 +317,42 @@
   </si>
   <si>
     <t>Mon professeur est passé au cours de la matinée afin de vérifier mon code et voir si j'avais bien tout compris</t>
+  </si>
+  <si>
+    <t>J'ai commencé la matinée par remettre en place mon infrastructure</t>
+  </si>
+  <si>
+    <t>Mon professeur est passé au cours de la matinée pour discuter avec moi de ce qu'il me fallait faire durant la remédiation</t>
+  </si>
+  <si>
+    <t>J'ai repris mes documents et ait relu ma documentation afin de me remttre dedans</t>
+  </si>
+  <si>
+    <t>J'ai termincé la matinée en mettant en forme mon code ainsi que mon infrastructure</t>
+  </si>
+  <si>
+    <t>J'ai passer un bon moment de l'après midi à résoudres les problèmes que j'avais avec la réservation</t>
+  </si>
+  <si>
+    <t>J'ai continuer en affichant les joueurs sur l'interface</t>
+  </si>
+  <si>
+    <t>J'ai terminé la journée en hébergeant mon site et en commencant la résolution de quelques problèmes du à l'hébergement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai commencé la journée en résoluant mes problèmes du à l'hébergement </t>
+  </si>
+  <si>
+    <t>J'ai rencontré des problèmes d'accent et de majuscule qui m'ont pris un certain temps à résoudre à l'aide de mon professeur</t>
+  </si>
+  <si>
+    <t>J'ai effectuer une démonstration de mon application auprès de mon professeur</t>
+  </si>
+  <si>
+    <t>J'ai corriger mon rapport de projet et l'ai finalisé</t>
+  </si>
+  <si>
+    <t>J'ai mis à jour le journal de travail</t>
   </si>
 </sst>
 </file>
@@ -1907,10 +1943,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A37" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A43" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2328,7 +2364,7 @@
         <v>92</v>
       </c>
       <c r="C41" s="13">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
@@ -2339,7 +2375,7 @@
         <v>93</v>
       </c>
       <c r="C42" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
@@ -2353,108 +2389,165 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="13"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="13"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="13"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="13"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="13"/>
+    <row r="44" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
+        <v>45782</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>45782</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <v>45782</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <v>45782</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
+        <v>45782</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="13">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="13"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="13"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="13"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="13"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="13"/>
+      <c r="A49" s="12">
+        <v>45782</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="12">
+        <v>45782</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
+        <v>45783</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <v>45783</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
+        <v>45783</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="13">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="13"/>
+      <c r="A54" s="12">
+        <v>45783</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="13"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
+      <c r="A55" s="12">
+        <v>45783</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="B56" s="9"/>
-      <c r="C56" s="13"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="13"/>
+      <c r="C56" s="13">
+        <f>SUM(C8:C55)</f>
+        <v>57.75</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="13"/>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="13">
-        <f>SUM(C8:C43)</f>
-        <v>44.75</v>
-      </c>
+      <c r="B58" s="14"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="15"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="16"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="14"/>
+      <c r="B61" s="15"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="15"/>
+      <c r="B62" s="16"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" s="16"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="15"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="16"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2470,6 +2563,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <INOU_x00cf_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <NON xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <TaxCatchAll xmlns="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xsi:nil="true"/>
+    <toutvabien xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <a xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <_x002d__x002e__x002d_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">.-.</_x002d__x002e__x002d_>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010041433D532D33284694B8292187168088" ma:contentTypeVersion="20" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a6a15b9106ef78c138a0ab33249408c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xmlns:ns3="fcabc8dd-3274-4261-b688-fb49e1a84a60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f299860b08438f464b66cb389ee0528" ns2:_="" ns3:_="">
     <xsd:import namespace="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
@@ -2738,32 +2856,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92433B2D-0774-4141-A340-826B2CF0D0B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fcabc8dd-3274-4261-b688-fb49e1a84a60"/>
+    <ds:schemaRef ds:uri="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <INOU_x00cf_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <NON xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <TaxCatchAll xmlns="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xsi:nil="true"/>
-    <toutvabien xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <a xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <_x002d__x002e__x002d_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">.-.</_x002d__x002e__x002d_>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE997C-CC40-4C9E-895E-C18775B049B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5622E8-3DF4-4B1B-82B9-E7FCE9ABFC72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2780,23 +2892,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE997C-CC40-4C9E-895E-C18775B049B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92433B2D-0774-4141-A340-826B2CF0D0B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fcabc8dd-3274-4261-b688-fb49e1a84a60"/>
-    <ds:schemaRef ds:uri="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>